--- a/resource_api/shared/dosyalar/mk_sevk_sip_listesi.xlsx
+++ b/resource_api/shared/dosyalar/mk_sevk_sip_listesi.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,7 +32,7 @@
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="14"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -58,32 +58,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,34 +409,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="23.109375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="23.109375" customWidth="1" style="4" min="2" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Müşteri Adı</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Sipariş Fob</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Yüklenen Fob</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Yüklenen Ddp</t>
         </is>
@@ -466,13 +445,13 @@
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>19156.8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>36277.65</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>38047.65</v>
       </c>
     </row>
@@ -482,13 +461,13 @@
           <t>Radu &amp; Eugen - USA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>6227.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>6227.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>6227.5</v>
       </c>
     </row>
@@ -498,13 +477,13 @@
           <t>Hotel Gab - Romania</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>11374.95</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -514,13 +493,13 @@
           <t>Tamer ($)</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>1762</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>1762</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>1762</v>
       </c>
     </row>
@@ -530,13 +509,13 @@
           <t>Sam - Ghana</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>500</v>
       </c>
     </row>
@@ -546,13 +525,13 @@
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>115712.35</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>118689.21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>126382.21</v>
       </c>
     </row>
@@ -562,13 +541,13 @@
           <t>Flos - Malta</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>17777.06</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>31647.75</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>31647.75</v>
       </c>
     </row>
@@ -578,13 +557,13 @@
           <t>Ardexline - Moldova</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>17245.31</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -594,13 +573,13 @@
           <t>Patrick - Germany</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>96969.61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -610,13 +589,13 @@
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>50510.63</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>16260.99</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>18560.99</v>
       </c>
     </row>
@@ -626,13 +605,13 @@
           <t>Robert - Bahamas</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>24262.36</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,13 +621,13 @@
           <t>Kirill - Russia</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>17542.99</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>19917.99</v>
       </c>
     </row>
@@ -658,13 +637,13 @@
           <t>BKF - USA</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>962.9400000000001</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>962.9400000000001</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>962.9400000000001</v>
       </c>
     </row>
@@ -674,13 +653,13 @@
           <t>Sheikh - UAE</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>76505.44</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -690,13 +669,13 @@
           <t>Tracy - AU</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>24554.66</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>11563.06</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>11563.06</v>
       </c>
     </row>
@@ -706,13 +685,13 @@
           <t>Douglas - Belize</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>32509.11</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>62632.47</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>85132.47</v>
       </c>
     </row>
@@ -722,13 +701,13 @@
           <t>Yosof - Oman</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>32480</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>35680</v>
       </c>
     </row>
@@ -738,13 +717,13 @@
           <t>Prim Rose - Ghana</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
         <v>40853.55</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>55353.55</v>
       </c>
     </row>
@@ -754,13 +733,13 @@
           <t>Atu - Ghana</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="2" t="n">
         <v>30160.6</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
         <v>30160.6</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>33660.6</v>
       </c>
     </row>
@@ -770,13 +749,13 @@
           <t>Sean - MALTA</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>10161.7</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
         <v>10161.7</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>10361.7</v>
       </c>
     </row>
@@ -786,13 +765,13 @@
           <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>7221.68</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
         <v>7221.68</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>7221.68</v>
       </c>
     </row>
@@ -802,13 +781,13 @@
           <t>Branislav Mikulovsky - Slovakia</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>9926.370000000001</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
         <v>9926.370000000001</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>9391.370000000001</v>
       </c>
     </row>
@@ -818,13 +797,13 @@
           <t>Esi Okyere - Ghana</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>22746.86</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>26346.86</v>
       </c>
     </row>
@@ -834,13 +813,13 @@
           <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>12751.32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,13 +829,13 @@
           <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="2" t="n">
         <v>5270.49</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
         <v>21553.38</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>24700.89</v>
       </c>
     </row>
@@ -866,13 +845,13 @@
           <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
         <v>57830.24</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>59198.24</v>
       </c>
     </row>
@@ -882,13 +861,13 @@
           <t>Cem Peker</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="2" t="n">
         <v>20094.75</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
         <v>28802.48</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>28802.48</v>
       </c>
     </row>
@@ -898,13 +877,13 @@
           <t>Brent Losey - USA</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="2" t="n">
         <v>567.16</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
         <v>567.16</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>1503.98</v>
       </c>
     </row>
@@ -914,13 +893,13 @@
           <t>Thomas Gebing - DE</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
         <v>6269.1</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>8889.1</v>
       </c>
     </row>
@@ -930,13 +909,13 @@
           <t>Carl Max - Ghana</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="2" t="n">
         <v>38990.06</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
         <v>45677.18</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>52477.18</v>
       </c>
     </row>
@@ -946,13 +925,13 @@
           <t>Donald Gorski - USA</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
         <v>5356.58</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>5356.58</v>
       </c>
     </row>
@@ -962,13 +941,13 @@
           <t>Mama Abui - Ghana</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="2" t="n">
         <v>30081.67</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
         <v>30081.67</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>33731.67</v>
       </c>
     </row>
@@ -978,13 +957,13 @@
           <t>Ante Drazic - HR</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="2" t="n">
         <v>12820.24</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
         <v>12350.24</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>12350.24</v>
       </c>
     </row>
@@ -994,13 +973,13 @@
           <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="2" t="n">
         <v>42361.8</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
         <v>36719.94</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>38391.05</v>
       </c>
     </row>
@@ -1010,13 +989,13 @@
           <t>Franchesta - USA</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="2" t="n">
         <v>31252.8</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
         <v>31252.8</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>31252.8</v>
       </c>
     </row>
@@ -1026,13 +1005,13 @@
           <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="2" t="n">
         <v>32020.64</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
         <v>32020.64</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>32020.64</v>
       </c>
     </row>
@@ -1042,13 +1021,13 @@
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="2" t="n">
         <v>77464.69</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
         <v>19421.71</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>25143.71</v>
       </c>
     </row>
@@ -1058,29 +1037,29 @@
           <t>Oday Mosalam - Germany</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="2" t="n">
         <v>14270.65</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
         <v>14270.65</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>15651.92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KWABENA OSEI BONSU - Ghana</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+          <t>Kwabena Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>94130.77</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
         <v>60006.15</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>62211.05</v>
       </c>
     </row>
@@ -1090,13 +1069,13 @@
           <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="2" t="n">
         <v>79755.8</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
         <v>27686.1</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>31336.1</v>
       </c>
     </row>
@@ -1106,13 +1085,13 @@
           <t>Andrey &amp; Sergey - RU</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="2" t="n">
         <v>14001.12</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,13 +1101,13 @@
           <t>Rasma Decor - BH</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="2" t="n">
         <v>33439.57</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1138,13 +1117,13 @@
           <t>Manhal Najjar - Dubai</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1154,15 +1133,2680 @@
           <t>Berchie A. - Ghana</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="2" t="n">
         <v>12000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="2" t="n"/>
+      <c r="D47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="n"/>
+      <c r="C49" s="2" t="n"/>
+      <c r="D49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="2" t="n"/>
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="2" t="n"/>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="n"/>
+      <c r="C53" s="2" t="n"/>
+      <c r="D53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="n"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="2" t="n"/>
+      <c r="D55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="n"/>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="n"/>
+      <c r="C59" s="2" t="n"/>
+      <c r="D59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="n"/>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="2" t="n"/>
+      <c r="C61" s="2" t="n"/>
+      <c r="D61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="2" t="n"/>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="2" t="n"/>
+      <c r="C63" s="2" t="n"/>
+      <c r="D63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="n"/>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="n"/>
+      <c r="C65" s="2" t="n"/>
+      <c r="D65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="n"/>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="n"/>
+      <c r="C67" s="2" t="n"/>
+      <c r="D67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="2" t="n"/>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="2" t="n"/>
+      <c r="C69" s="2" t="n"/>
+      <c r="D69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="2" t="n"/>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="n"/>
+      <c r="C71" s="2" t="n"/>
+      <c r="D71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="n"/>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="2" t="n"/>
+      <c r="C73" s="2" t="n"/>
+      <c r="D73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="n"/>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="2" t="n"/>
+      <c r="C75" s="2" t="n"/>
+      <c r="D75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="2" t="n"/>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="2" t="n"/>
+      <c r="C77" s="2" t="n"/>
+      <c r="D77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="2" t="n"/>
+      <c r="C78" s="2" t="n"/>
+      <c r="D78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="2" t="n"/>
+      <c r="C79" s="2" t="n"/>
+      <c r="D79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="2" t="n"/>
+      <c r="C80" s="2" t="n"/>
+      <c r="D80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="n"/>
+      <c r="C82" s="2" t="n"/>
+      <c r="D82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="2" t="n"/>
+      <c r="D83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="2" t="n"/>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="2" t="n"/>
+      <c r="C85" s="2" t="n"/>
+      <c r="D85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="2" t="n"/>
+      <c r="C87" s="2" t="n"/>
+      <c r="D87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="2" t="n"/>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="2" t="n"/>
+      <c r="C89" s="2" t="n"/>
+      <c r="D89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="n"/>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="2" t="n"/>
+      <c r="C91" s="2" t="n"/>
+      <c r="D91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="2" t="n"/>
+      <c r="D92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="2" t="n"/>
+      <c r="C93" s="2" t="n"/>
+      <c r="D93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="2" t="n"/>
+      <c r="C94" s="2" t="n"/>
+      <c r="D94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="2" t="n"/>
+      <c r="C95" s="2" t="n"/>
+      <c r="D95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="2" t="n"/>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="2" t="n"/>
+      <c r="C97" s="2" t="n"/>
+      <c r="D97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="2" t="n"/>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="2" t="n"/>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="2" t="n"/>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="2" t="n"/>
+      <c r="C101" s="2" t="n"/>
+      <c r="D101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="2" t="n"/>
+      <c r="C102" s="2" t="n"/>
+      <c r="D102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="2" t="n"/>
+      <c r="C104" s="2" t="n"/>
+      <c r="D104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="2" t="n"/>
+      <c r="C105" s="2" t="n"/>
+      <c r="D105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="n"/>
+      <c r="C106" s="2" t="n"/>
+      <c r="D106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="2" t="n"/>
+      <c r="C107" s="2" t="n"/>
+      <c r="D107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="2" t="n"/>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="2" t="n"/>
+      <c r="C109" s="2" t="n"/>
+      <c r="D109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="2" t="n"/>
+      <c r="C110" s="2" t="n"/>
+      <c r="D110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="2" t="n"/>
+      <c r="C111" s="2" t="n"/>
+      <c r="D111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="2" t="n"/>
+      <c r="C112" s="2" t="n"/>
+      <c r="D112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="2" t="n"/>
+      <c r="C113" s="2" t="n"/>
+      <c r="D113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="n"/>
+      <c r="C114" s="2" t="n"/>
+      <c r="D114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="2" t="n"/>
+      <c r="C115" s="2" t="n"/>
+      <c r="D115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="2" t="n"/>
+      <c r="C116" s="2" t="n"/>
+      <c r="D116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="2" t="n"/>
+      <c r="C117" s="2" t="n"/>
+      <c r="D117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="2" t="n"/>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="2" t="n"/>
+      <c r="C119" s="2" t="n"/>
+      <c r="D119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="2" t="n"/>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="2" t="n"/>
+      <c r="C121" s="2" t="n"/>
+      <c r="D121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="n"/>
+      <c r="C122" s="2" t="n"/>
+      <c r="D122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="2" t="n"/>
+      <c r="C123" s="2" t="n"/>
+      <c r="D123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="2" t="n"/>
+      <c r="C124" s="2" t="n"/>
+      <c r="D124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="2" t="n"/>
+      <c r="C125" s="2" t="n"/>
+      <c r="D125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="2" t="n"/>
+      <c r="C126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="2" t="n"/>
+      <c r="C127" s="2" t="n"/>
+      <c r="D127" s="2" t="n"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="2" t="n"/>
+      <c r="C128" s="2" t="n"/>
+      <c r="D128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="2" t="n"/>
+      <c r="C129" s="2" t="n"/>
+      <c r="D129" s="2" t="n"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="2" t="n"/>
+      <c r="C130" s="2" t="n"/>
+      <c r="D130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="2" t="n"/>
+      <c r="C131" s="2" t="n"/>
+      <c r="D131" s="2" t="n"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="2" t="n"/>
+      <c r="C132" s="2" t="n"/>
+      <c r="D132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="2" t="n"/>
+      <c r="C133" s="2" t="n"/>
+      <c r="D133" s="2" t="n"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="2" t="n"/>
+      <c r="C134" s="2" t="n"/>
+      <c r="D134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="2" t="n"/>
+      <c r="C135" s="2" t="n"/>
+      <c r="D135" s="2" t="n"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="2" t="n"/>
+      <c r="C136" s="2" t="n"/>
+      <c r="D136" s="2" t="n"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="2" t="n"/>
+      <c r="C137" s="2" t="n"/>
+      <c r="D137" s="2" t="n"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="2" t="n"/>
+      <c r="C138" s="2" t="n"/>
+      <c r="D138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="2" t="n"/>
+      <c r="C139" s="2" t="n"/>
+      <c r="D139" s="2" t="n"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="2" t="n"/>
+      <c r="C140" s="2" t="n"/>
+      <c r="D140" s="2" t="n"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="2" t="n"/>
+      <c r="C141" s="2" t="n"/>
+      <c r="D141" s="2" t="n"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="2" t="n"/>
+      <c r="C142" s="2" t="n"/>
+      <c r="D142" s="2" t="n"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="2" t="n"/>
+      <c r="C143" s="2" t="n"/>
+      <c r="D143" s="2" t="n"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="2" t="n"/>
+      <c r="C144" s="2" t="n"/>
+      <c r="D144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="2" t="n"/>
+      <c r="C145" s="2" t="n"/>
+      <c r="D145" s="2" t="n"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="2" t="n"/>
+      <c r="C146" s="2" t="n"/>
+      <c r="D146" s="2" t="n"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="2" t="n"/>
+      <c r="C147" s="2" t="n"/>
+      <c r="D147" s="2" t="n"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="2" t="n"/>
+      <c r="C148" s="2" t="n"/>
+      <c r="D148" s="2" t="n"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="2" t="n"/>
+      <c r="C149" s="2" t="n"/>
+      <c r="D149" s="2" t="n"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="2" t="n"/>
+      <c r="C150" s="2" t="n"/>
+      <c r="D150" s="2" t="n"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="2" t="n"/>
+      <c r="C151" s="2" t="n"/>
+      <c r="D151" s="2" t="n"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="2" t="n"/>
+      <c r="C152" s="2" t="n"/>
+      <c r="D152" s="2" t="n"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="2" t="n"/>
+      <c r="C153" s="2" t="n"/>
+      <c r="D153" s="2" t="n"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="2" t="n"/>
+      <c r="C154" s="2" t="n"/>
+      <c r="D154" s="2" t="n"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="2" t="n"/>
+      <c r="C155" s="2" t="n"/>
+      <c r="D155" s="2" t="n"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="2" t="n"/>
+      <c r="C156" s="2" t="n"/>
+      <c r="D156" s="2" t="n"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="2" t="n"/>
+      <c r="C157" s="2" t="n"/>
+      <c r="D157" s="2" t="n"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="2" t="n"/>
+      <c r="C158" s="2" t="n"/>
+      <c r="D158" s="2" t="n"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="2" t="n"/>
+      <c r="C159" s="2" t="n"/>
+      <c r="D159" s="2" t="n"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="2" t="n"/>
+      <c r="C160" s="2" t="n"/>
+      <c r="D160" s="2" t="n"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="2" t="n"/>
+      <c r="C161" s="2" t="n"/>
+      <c r="D161" s="2" t="n"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="2" t="n"/>
+      <c r="C162" s="2" t="n"/>
+      <c r="D162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="2" t="n"/>
+      <c r="C163" s="2" t="n"/>
+      <c r="D163" s="2" t="n"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="2" t="n"/>
+      <c r="C164" s="2" t="n"/>
+      <c r="D164" s="2" t="n"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="2" t="n"/>
+      <c r="C165" s="2" t="n"/>
+      <c r="D165" s="2" t="n"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="2" t="n"/>
+      <c r="C166" s="2" t="n"/>
+      <c r="D166" s="2" t="n"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="2" t="n"/>
+      <c r="C167" s="2" t="n"/>
+      <c r="D167" s="2" t="n"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="2" t="n"/>
+      <c r="C168" s="2" t="n"/>
+      <c r="D168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="2" t="n"/>
+      <c r="C169" s="2" t="n"/>
+      <c r="D169" s="2" t="n"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="2" t="n"/>
+      <c r="C170" s="2" t="n"/>
+      <c r="D170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="2" t="n"/>
+      <c r="C171" s="2" t="n"/>
+      <c r="D171" s="2" t="n"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="2" t="n"/>
+      <c r="C172" s="2" t="n"/>
+      <c r="D172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="2" t="n"/>
+      <c r="C173" s="2" t="n"/>
+      <c r="D173" s="2" t="n"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="2" t="n"/>
+      <c r="C174" s="2" t="n"/>
+      <c r="D174" s="2" t="n"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="2" t="n"/>
+      <c r="C175" s="2" t="n"/>
+      <c r="D175" s="2" t="n"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="2" t="n"/>
+      <c r="C176" s="2" t="n"/>
+      <c r="D176" s="2" t="n"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="2" t="n"/>
+      <c r="C177" s="2" t="n"/>
+      <c r="D177" s="2" t="n"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="2" t="n"/>
+      <c r="C178" s="2" t="n"/>
+      <c r="D178" s="2" t="n"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="2" t="n"/>
+      <c r="C179" s="2" t="n"/>
+      <c r="D179" s="2" t="n"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="2" t="n"/>
+      <c r="C180" s="2" t="n"/>
+      <c r="D180" s="2" t="n"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="2" t="n"/>
+      <c r="C181" s="2" t="n"/>
+      <c r="D181" s="2" t="n"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="2" t="n"/>
+      <c r="C182" s="2" t="n"/>
+      <c r="D182" s="2" t="n"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="2" t="n"/>
+      <c r="C183" s="2" t="n"/>
+      <c r="D183" s="2" t="n"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="2" t="n"/>
+      <c r="C184" s="2" t="n"/>
+      <c r="D184" s="2" t="n"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="2" t="n"/>
+      <c r="C185" s="2" t="n"/>
+      <c r="D185" s="2" t="n"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="2" t="n"/>
+      <c r="C186" s="2" t="n"/>
+      <c r="D186" s="2" t="n"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="2" t="n"/>
+      <c r="C187" s="2" t="n"/>
+      <c r="D187" s="2" t="n"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="2" t="n"/>
+      <c r="C188" s="2" t="n"/>
+      <c r="D188" s="2" t="n"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="2" t="n"/>
+      <c r="C189" s="2" t="n"/>
+      <c r="D189" s="2" t="n"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="2" t="n"/>
+      <c r="C190" s="2" t="n"/>
+      <c r="D190" s="2" t="n"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="2" t="n"/>
+      <c r="C191" s="2" t="n"/>
+      <c r="D191" s="2" t="n"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="2" t="n"/>
+      <c r="C192" s="2" t="n"/>
+      <c r="D192" s="2" t="n"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="2" t="n"/>
+      <c r="C193" s="2" t="n"/>
+      <c r="D193" s="2" t="n"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="2" t="n"/>
+      <c r="C194" s="2" t="n"/>
+      <c r="D194" s="2" t="n"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="2" t="n"/>
+      <c r="C195" s="2" t="n"/>
+      <c r="D195" s="2" t="n"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="2" t="n"/>
+      <c r="C196" s="2" t="n"/>
+      <c r="D196" s="2" t="n"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="2" t="n"/>
+      <c r="C197" s="2" t="n"/>
+      <c r="D197" s="2" t="n"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="2" t="n"/>
+      <c r="C198" s="2" t="n"/>
+      <c r="D198" s="2" t="n"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="2" t="n"/>
+      <c r="C199" s="2" t="n"/>
+      <c r="D199" s="2" t="n"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="2" t="n"/>
+      <c r="C200" s="2" t="n"/>
+      <c r="D200" s="2" t="n"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="2" t="n"/>
+      <c r="C201" s="2" t="n"/>
+      <c r="D201" s="2" t="n"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="2" t="n"/>
+      <c r="C202" s="2" t="n"/>
+      <c r="D202" s="2" t="n"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="2" t="n"/>
+      <c r="C203" s="2" t="n"/>
+      <c r="D203" s="2" t="n"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="2" t="n"/>
+      <c r="C204" s="2" t="n"/>
+      <c r="D204" s="2" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="2" t="n"/>
+      <c r="C205" s="2" t="n"/>
+      <c r="D205" s="2" t="n"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="2" t="n"/>
+      <c r="C206" s="2" t="n"/>
+      <c r="D206" s="2" t="n"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="2" t="n"/>
+      <c r="C207" s="2" t="n"/>
+      <c r="D207" s="2" t="n"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="2" t="n"/>
+      <c r="C208" s="2" t="n"/>
+      <c r="D208" s="2" t="n"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="2" t="n"/>
+      <c r="C209" s="2" t="n"/>
+      <c r="D209" s="2" t="n"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="2" t="n"/>
+      <c r="C210" s="2" t="n"/>
+      <c r="D210" s="2" t="n"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="2" t="n"/>
+      <c r="C211" s="2" t="n"/>
+      <c r="D211" s="2" t="n"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="2" t="n"/>
+      <c r="C212" s="2" t="n"/>
+      <c r="D212" s="2" t="n"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="2" t="n"/>
+      <c r="C213" s="2" t="n"/>
+      <c r="D213" s="2" t="n"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="2" t="n"/>
+      <c r="C214" s="2" t="n"/>
+      <c r="D214" s="2" t="n"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="2" t="n"/>
+      <c r="C215" s="2" t="n"/>
+      <c r="D215" s="2" t="n"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="2" t="n"/>
+      <c r="C216" s="2" t="n"/>
+      <c r="D216" s="2" t="n"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="2" t="n"/>
+      <c r="C217" s="2" t="n"/>
+      <c r="D217" s="2" t="n"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="2" t="n"/>
+      <c r="C218" s="2" t="n"/>
+      <c r="D218" s="2" t="n"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="2" t="n"/>
+      <c r="C219" s="2" t="n"/>
+      <c r="D219" s="2" t="n"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="2" t="n"/>
+      <c r="C220" s="2" t="n"/>
+      <c r="D220" s="2" t="n"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="2" t="n"/>
+      <c r="C221" s="2" t="n"/>
+      <c r="D221" s="2" t="n"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="2" t="n"/>
+      <c r="C222" s="2" t="n"/>
+      <c r="D222" s="2" t="n"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="2" t="n"/>
+      <c r="C223" s="2" t="n"/>
+      <c r="D223" s="2" t="n"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="2" t="n"/>
+      <c r="C224" s="2" t="n"/>
+      <c r="D224" s="2" t="n"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="2" t="n"/>
+      <c r="C225" s="2" t="n"/>
+      <c r="D225" s="2" t="n"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="2" t="n"/>
+      <c r="C226" s="2" t="n"/>
+      <c r="D226" s="2" t="n"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="2" t="n"/>
+      <c r="C227" s="2" t="n"/>
+      <c r="D227" s="2" t="n"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="2" t="n"/>
+      <c r="C228" s="2" t="n"/>
+      <c r="D228" s="2" t="n"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="2" t="n"/>
+      <c r="C229" s="2" t="n"/>
+      <c r="D229" s="2" t="n"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="2" t="n"/>
+      <c r="C230" s="2" t="n"/>
+      <c r="D230" s="2" t="n"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="2" t="n"/>
+      <c r="C231" s="2" t="n"/>
+      <c r="D231" s="2" t="n"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="2" t="n"/>
+      <c r="C232" s="2" t="n"/>
+      <c r="D232" s="2" t="n"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="2" t="n"/>
+      <c r="C233" s="2" t="n"/>
+      <c r="D233" s="2" t="n"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="2" t="n"/>
+      <c r="C234" s="2" t="n"/>
+      <c r="D234" s="2" t="n"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="2" t="n"/>
+      <c r="C235" s="2" t="n"/>
+      <c r="D235" s="2" t="n"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="2" t="n"/>
+      <c r="C236" s="2" t="n"/>
+      <c r="D236" s="2" t="n"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="2" t="n"/>
+      <c r="C237" s="2" t="n"/>
+      <c r="D237" s="2" t="n"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="2" t="n"/>
+      <c r="C238" s="2" t="n"/>
+      <c r="D238" s="2" t="n"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="2" t="n"/>
+      <c r="C239" s="2" t="n"/>
+      <c r="D239" s="2" t="n"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="2" t="n"/>
+      <c r="C240" s="2" t="n"/>
+      <c r="D240" s="2" t="n"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="2" t="n"/>
+      <c r="C241" s="2" t="n"/>
+      <c r="D241" s="2" t="n"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="2" t="n"/>
+      <c r="C242" s="2" t="n"/>
+      <c r="D242" s="2" t="n"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="2" t="n"/>
+      <c r="C243" s="2" t="n"/>
+      <c r="D243" s="2" t="n"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="2" t="n"/>
+      <c r="C244" s="2" t="n"/>
+      <c r="D244" s="2" t="n"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="2" t="n"/>
+      <c r="C245" s="2" t="n"/>
+      <c r="D245" s="2" t="n"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="2" t="n"/>
+      <c r="C246" s="2" t="n"/>
+      <c r="D246" s="2" t="n"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="2" t="n"/>
+      <c r="C247" s="2" t="n"/>
+      <c r="D247" s="2" t="n"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="2" t="n"/>
+      <c r="C248" s="2" t="n"/>
+      <c r="D248" s="2" t="n"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="2" t="n"/>
+      <c r="C249" s="2" t="n"/>
+      <c r="D249" s="2" t="n"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="2" t="n"/>
+      <c r="C250" s="2" t="n"/>
+      <c r="D250" s="2" t="n"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="2" t="n"/>
+      <c r="C251" s="2" t="n"/>
+      <c r="D251" s="2" t="n"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="2" t="n"/>
+      <c r="C252" s="2" t="n"/>
+      <c r="D252" s="2" t="n"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="2" t="n"/>
+      <c r="C253" s="2" t="n"/>
+      <c r="D253" s="2" t="n"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="2" t="n"/>
+      <c r="C254" s="2" t="n"/>
+      <c r="D254" s="2" t="n"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="2" t="n"/>
+      <c r="C255" s="2" t="n"/>
+      <c r="D255" s="2" t="n"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="2" t="n"/>
+      <c r="C256" s="2" t="n"/>
+      <c r="D256" s="2" t="n"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="2" t="n"/>
+      <c r="C257" s="2" t="n"/>
+      <c r="D257" s="2" t="n"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="2" t="n"/>
+      <c r="C258" s="2" t="n"/>
+      <c r="D258" s="2" t="n"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="2" t="n"/>
+      <c r="C259" s="2" t="n"/>
+      <c r="D259" s="2" t="n"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="2" t="n"/>
+      <c r="C260" s="2" t="n"/>
+      <c r="D260" s="2" t="n"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="2" t="n"/>
+      <c r="C261" s="2" t="n"/>
+      <c r="D261" s="2" t="n"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="2" t="n"/>
+      <c r="C262" s="2" t="n"/>
+      <c r="D262" s="2" t="n"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="2" t="n"/>
+      <c r="C263" s="2" t="n"/>
+      <c r="D263" s="2" t="n"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="2" t="n"/>
+      <c r="C264" s="2" t="n"/>
+      <c r="D264" s="2" t="n"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="2" t="n"/>
+      <c r="C265" s="2" t="n"/>
+      <c r="D265" s="2" t="n"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="2" t="n"/>
+      <c r="C266" s="2" t="n"/>
+      <c r="D266" s="2" t="n"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="2" t="n"/>
+      <c r="C267" s="2" t="n"/>
+      <c r="D267" s="2" t="n"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="2" t="n"/>
+      <c r="C268" s="2" t="n"/>
+      <c r="D268" s="2" t="n"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="2" t="n"/>
+      <c r="C269" s="2" t="n"/>
+      <c r="D269" s="2" t="n"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="2" t="n"/>
+      <c r="C270" s="2" t="n"/>
+      <c r="D270" s="2" t="n"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="2" t="n"/>
+      <c r="C271" s="2" t="n"/>
+      <c r="D271" s="2" t="n"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="2" t="n"/>
+      <c r="C272" s="2" t="n"/>
+      <c r="D272" s="2" t="n"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="2" t="n"/>
+      <c r="C273" s="2" t="n"/>
+      <c r="D273" s="2" t="n"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="2" t="n"/>
+      <c r="C274" s="2" t="n"/>
+      <c r="D274" s="2" t="n"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="2" t="n"/>
+      <c r="C275" s="2" t="n"/>
+      <c r="D275" s="2" t="n"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="2" t="n"/>
+      <c r="C276" s="2" t="n"/>
+      <c r="D276" s="2" t="n"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="2" t="n"/>
+      <c r="C277" s="2" t="n"/>
+      <c r="D277" s="2" t="n"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="2" t="n"/>
+      <c r="C278" s="2" t="n"/>
+      <c r="D278" s="2" t="n"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="2" t="n"/>
+      <c r="C279" s="2" t="n"/>
+      <c r="D279" s="2" t="n"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="2" t="n"/>
+      <c r="C280" s="2" t="n"/>
+      <c r="D280" s="2" t="n"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="2" t="n"/>
+      <c r="C281" s="2" t="n"/>
+      <c r="D281" s="2" t="n"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="2" t="n"/>
+      <c r="C282" s="2" t="n"/>
+      <c r="D282" s="2" t="n"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="2" t="n"/>
+      <c r="C283" s="2" t="n"/>
+      <c r="D283" s="2" t="n"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="2" t="n"/>
+      <c r="C284" s="2" t="n"/>
+      <c r="D284" s="2" t="n"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="2" t="n"/>
+      <c r="C285" s="2" t="n"/>
+      <c r="D285" s="2" t="n"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="2" t="n"/>
+      <c r="C286" s="2" t="n"/>
+      <c r="D286" s="2" t="n"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="2" t="n"/>
+      <c r="C287" s="2" t="n"/>
+      <c r="D287" s="2" t="n"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="2" t="n"/>
+      <c r="C288" s="2" t="n"/>
+      <c r="D288" s="2" t="n"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="2" t="n"/>
+      <c r="C289" s="2" t="n"/>
+      <c r="D289" s="2" t="n"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="2" t="n"/>
+      <c r="C290" s="2" t="n"/>
+      <c r="D290" s="2" t="n"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="2" t="n"/>
+      <c r="C291" s="2" t="n"/>
+      <c r="D291" s="2" t="n"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="2" t="n"/>
+      <c r="C292" s="2" t="n"/>
+      <c r="D292" s="2" t="n"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="2" t="n"/>
+      <c r="C293" s="2" t="n"/>
+      <c r="D293" s="2" t="n"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="2" t="n"/>
+      <c r="C294" s="2" t="n"/>
+      <c r="D294" s="2" t="n"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="2" t="n"/>
+      <c r="C295" s="2" t="n"/>
+      <c r="D295" s="2" t="n"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="2" t="n"/>
+      <c r="C296" s="2" t="n"/>
+      <c r="D296" s="2" t="n"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="2" t="n"/>
+      <c r="C297" s="2" t="n"/>
+      <c r="D297" s="2" t="n"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="2" t="n"/>
+      <c r="C298" s="2" t="n"/>
+      <c r="D298" s="2" t="n"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="2" t="n"/>
+      <c r="C299" s="2" t="n"/>
+      <c r="D299" s="2" t="n"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="2" t="n"/>
+      <c r="C300" s="2" t="n"/>
+      <c r="D300" s="2" t="n"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="2" t="n"/>
+      <c r="C301" s="2" t="n"/>
+      <c r="D301" s="2" t="n"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="2" t="n"/>
+      <c r="C302" s="2" t="n"/>
+      <c r="D302" s="2" t="n"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="2" t="n"/>
+      <c r="C303" s="2" t="n"/>
+      <c r="D303" s="2" t="n"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="2" t="n"/>
+      <c r="C304" s="2" t="n"/>
+      <c r="D304" s="2" t="n"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="2" t="n"/>
+      <c r="C305" s="2" t="n"/>
+      <c r="D305" s="2" t="n"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="2" t="n"/>
+      <c r="C306" s="2" t="n"/>
+      <c r="D306" s="2" t="n"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="2" t="n"/>
+      <c r="C307" s="2" t="n"/>
+      <c r="D307" s="2" t="n"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="2" t="n"/>
+      <c r="C308" s="2" t="n"/>
+      <c r="D308" s="2" t="n"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="2" t="n"/>
+      <c r="C309" s="2" t="n"/>
+      <c r="D309" s="2" t="n"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="2" t="n"/>
+      <c r="C310" s="2" t="n"/>
+      <c r="D310" s="2" t="n"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="2" t="n"/>
+      <c r="C311" s="2" t="n"/>
+      <c r="D311" s="2" t="n"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="2" t="n"/>
+      <c r="C312" s="2" t="n"/>
+      <c r="D312" s="2" t="n"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="2" t="n"/>
+      <c r="C313" s="2" t="n"/>
+      <c r="D313" s="2" t="n"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="2" t="n"/>
+      <c r="C314" s="2" t="n"/>
+      <c r="D314" s="2" t="n"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="2" t="n"/>
+      <c r="C315" s="2" t="n"/>
+      <c r="D315" s="2" t="n"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="2" t="n"/>
+      <c r="C316" s="2" t="n"/>
+      <c r="D316" s="2" t="n"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="2" t="n"/>
+      <c r="C317" s="2" t="n"/>
+      <c r="D317" s="2" t="n"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="2" t="n"/>
+      <c r="C318" s="2" t="n"/>
+      <c r="D318" s="2" t="n"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="2" t="n"/>
+      <c r="C319" s="2" t="n"/>
+      <c r="D319" s="2" t="n"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="2" t="n"/>
+      <c r="C320" s="2" t="n"/>
+      <c r="D320" s="2" t="n"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="2" t="n"/>
+      <c r="C321" s="2" t="n"/>
+      <c r="D321" s="2" t="n"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="2" t="n"/>
+      <c r="C322" s="2" t="n"/>
+      <c r="D322" s="2" t="n"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="2" t="n"/>
+      <c r="C323" s="2" t="n"/>
+      <c r="D323" s="2" t="n"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="2" t="n"/>
+      <c r="C324" s="2" t="n"/>
+      <c r="D324" s="2" t="n"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="2" t="n"/>
+      <c r="C325" s="2" t="n"/>
+      <c r="D325" s="2" t="n"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="2" t="n"/>
+      <c r="C326" s="2" t="n"/>
+      <c r="D326" s="2" t="n"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="2" t="n"/>
+      <c r="C327" s="2" t="n"/>
+      <c r="D327" s="2" t="n"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="2" t="n"/>
+      <c r="C328" s="2" t="n"/>
+      <c r="D328" s="2" t="n"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="2" t="n"/>
+      <c r="C329" s="2" t="n"/>
+      <c r="D329" s="2" t="n"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="2" t="n"/>
+      <c r="C330" s="2" t="n"/>
+      <c r="D330" s="2" t="n"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="2" t="n"/>
+      <c r="C331" s="2" t="n"/>
+      <c r="D331" s="2" t="n"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="2" t="n"/>
+      <c r="C332" s="2" t="n"/>
+      <c r="D332" s="2" t="n"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="2" t="n"/>
+      <c r="C333" s="2" t="n"/>
+      <c r="D333" s="2" t="n"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="2" t="n"/>
+      <c r="C334" s="2" t="n"/>
+      <c r="D334" s="2" t="n"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="2" t="n"/>
+      <c r="C335" s="2" t="n"/>
+      <c r="D335" s="2" t="n"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="2" t="n"/>
+      <c r="C336" s="2" t="n"/>
+      <c r="D336" s="2" t="n"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="2" t="n"/>
+      <c r="C337" s="2" t="n"/>
+      <c r="D337" s="2" t="n"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="2" t="n"/>
+      <c r="C338" s="2" t="n"/>
+      <c r="D338" s="2" t="n"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="2" t="n"/>
+      <c r="C339" s="2" t="n"/>
+      <c r="D339" s="2" t="n"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="2" t="n"/>
+      <c r="C340" s="2" t="n"/>
+      <c r="D340" s="2" t="n"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="2" t="n"/>
+      <c r="C341" s="2" t="n"/>
+      <c r="D341" s="2" t="n"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="2" t="n"/>
+      <c r="C342" s="2" t="n"/>
+      <c r="D342" s="2" t="n"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="2" t="n"/>
+      <c r="C343" s="2" t="n"/>
+      <c r="D343" s="2" t="n"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="2" t="n"/>
+      <c r="C344" s="2" t="n"/>
+      <c r="D344" s="2" t="n"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="2" t="n"/>
+      <c r="C345" s="2" t="n"/>
+      <c r="D345" s="2" t="n"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="2" t="n"/>
+      <c r="C346" s="2" t="n"/>
+      <c r="D346" s="2" t="n"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="2" t="n"/>
+      <c r="C347" s="2" t="n"/>
+      <c r="D347" s="2" t="n"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="2" t="n"/>
+      <c r="C348" s="2" t="n"/>
+      <c r="D348" s="2" t="n"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="2" t="n"/>
+      <c r="C349" s="2" t="n"/>
+      <c r="D349" s="2" t="n"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="2" t="n"/>
+      <c r="C350" s="2" t="n"/>
+      <c r="D350" s="2" t="n"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="2" t="n"/>
+      <c r="C351" s="2" t="n"/>
+      <c r="D351" s="2" t="n"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="2" t="n"/>
+      <c r="C352" s="2" t="n"/>
+      <c r="D352" s="2" t="n"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="2" t="n"/>
+      <c r="C353" s="2" t="n"/>
+      <c r="D353" s="2" t="n"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="2" t="n"/>
+      <c r="C354" s="2" t="n"/>
+      <c r="D354" s="2" t="n"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="2" t="n"/>
+      <c r="C355" s="2" t="n"/>
+      <c r="D355" s="2" t="n"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="2" t="n"/>
+      <c r="C356" s="2" t="n"/>
+      <c r="D356" s="2" t="n"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="2" t="n"/>
+      <c r="C357" s="2" t="n"/>
+      <c r="D357" s="2" t="n"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="2" t="n"/>
+      <c r="C358" s="2" t="n"/>
+      <c r="D358" s="2" t="n"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="2" t="n"/>
+      <c r="C359" s="2" t="n"/>
+      <c r="D359" s="2" t="n"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="2" t="n"/>
+      <c r="C360" s="2" t="n"/>
+      <c r="D360" s="2" t="n"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="2" t="n"/>
+      <c r="C361" s="2" t="n"/>
+      <c r="D361" s="2" t="n"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="2" t="n"/>
+      <c r="C362" s="2" t="n"/>
+      <c r="D362" s="2" t="n"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="2" t="n"/>
+      <c r="C363" s="2" t="n"/>
+      <c r="D363" s="2" t="n"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="2" t="n"/>
+      <c r="C364" s="2" t="n"/>
+      <c r="D364" s="2" t="n"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="2" t="n"/>
+      <c r="C365" s="2" t="n"/>
+      <c r="D365" s="2" t="n"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="2" t="n"/>
+      <c r="C366" s="2" t="n"/>
+      <c r="D366" s="2" t="n"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="2" t="n"/>
+      <c r="C367" s="2" t="n"/>
+      <c r="D367" s="2" t="n"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="2" t="n"/>
+      <c r="C368" s="2" t="n"/>
+      <c r="D368" s="2" t="n"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="2" t="n"/>
+      <c r="C369" s="2" t="n"/>
+      <c r="D369" s="2" t="n"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="2" t="n"/>
+      <c r="C370" s="2" t="n"/>
+      <c r="D370" s="2" t="n"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="2" t="n"/>
+      <c r="C371" s="2" t="n"/>
+      <c r="D371" s="2" t="n"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="2" t="n"/>
+      <c r="C372" s="2" t="n"/>
+      <c r="D372" s="2" t="n"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="2" t="n"/>
+      <c r="C373" s="2" t="n"/>
+      <c r="D373" s="2" t="n"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="2" t="n"/>
+      <c r="C374" s="2" t="n"/>
+      <c r="D374" s="2" t="n"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="2" t="n"/>
+      <c r="C375" s="2" t="n"/>
+      <c r="D375" s="2" t="n"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="2" t="n"/>
+      <c r="C376" s="2" t="n"/>
+      <c r="D376" s="2" t="n"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="2" t="n"/>
+      <c r="C377" s="2" t="n"/>
+      <c r="D377" s="2" t="n"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="2" t="n"/>
+      <c r="C378" s="2" t="n"/>
+      <c r="D378" s="2" t="n"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="2" t="n"/>
+      <c r="C379" s="2" t="n"/>
+      <c r="D379" s="2" t="n"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="2" t="n"/>
+      <c r="C380" s="2" t="n"/>
+      <c r="D380" s="2" t="n"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="2" t="n"/>
+      <c r="C381" s="2" t="n"/>
+      <c r="D381" s="2" t="n"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="2" t="n"/>
+      <c r="C382" s="2" t="n"/>
+      <c r="D382" s="2" t="n"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="2" t="n"/>
+      <c r="C383" s="2" t="n"/>
+      <c r="D383" s="2" t="n"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="2" t="n"/>
+      <c r="C384" s="2" t="n"/>
+      <c r="D384" s="2" t="n"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="2" t="n"/>
+      <c r="C385" s="2" t="n"/>
+      <c r="D385" s="2" t="n"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="2" t="n"/>
+      <c r="C386" s="2" t="n"/>
+      <c r="D386" s="2" t="n"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="2" t="n"/>
+      <c r="C387" s="2" t="n"/>
+      <c r="D387" s="2" t="n"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="2" t="n"/>
+      <c r="C388" s="2" t="n"/>
+      <c r="D388" s="2" t="n"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="2" t="n"/>
+      <c r="C389" s="2" t="n"/>
+      <c r="D389" s="2" t="n"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="2" t="n"/>
+      <c r="C390" s="2" t="n"/>
+      <c r="D390" s="2" t="n"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="2" t="n"/>
+      <c r="C391" s="2" t="n"/>
+      <c r="D391" s="2" t="n"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="2" t="n"/>
+      <c r="C392" s="2" t="n"/>
+      <c r="D392" s="2" t="n"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="2" t="n"/>
+      <c r="C393" s="2" t="n"/>
+      <c r="D393" s="2" t="n"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="2" t="n"/>
+      <c r="C394" s="2" t="n"/>
+      <c r="D394" s="2" t="n"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="2" t="n"/>
+      <c r="C395" s="2" t="n"/>
+      <c r="D395" s="2" t="n"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="2" t="n"/>
+      <c r="C396" s="2" t="n"/>
+      <c r="D396" s="2" t="n"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="2" t="n"/>
+      <c r="C397" s="2" t="n"/>
+      <c r="D397" s="2" t="n"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="2" t="n"/>
+      <c r="C398" s="2" t="n"/>
+      <c r="D398" s="2" t="n"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="2" t="n"/>
+      <c r="C399" s="2" t="n"/>
+      <c r="D399" s="2" t="n"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="2" t="n"/>
+      <c r="C400" s="2" t="n"/>
+      <c r="D400" s="2" t="n"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="2" t="n"/>
+      <c r="C401" s="2" t="n"/>
+      <c r="D401" s="2" t="n"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="2" t="n"/>
+      <c r="C402" s="2" t="n"/>
+      <c r="D402" s="2" t="n"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="2" t="n"/>
+      <c r="C403" s="2" t="n"/>
+      <c r="D403" s="2" t="n"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="2" t="n"/>
+      <c r="C404" s="2" t="n"/>
+      <c r="D404" s="2" t="n"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="2" t="n"/>
+      <c r="C405" s="2" t="n"/>
+      <c r="D405" s="2" t="n"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="2" t="n"/>
+      <c r="C406" s="2" t="n"/>
+      <c r="D406" s="2" t="n"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="2" t="n"/>
+      <c r="C407" s="2" t="n"/>
+      <c r="D407" s="2" t="n"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="2" t="n"/>
+      <c r="C408" s="2" t="n"/>
+      <c r="D408" s="2" t="n"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="2" t="n"/>
+      <c r="C409" s="2" t="n"/>
+      <c r="D409" s="2" t="n"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="2" t="n"/>
+      <c r="C410" s="2" t="n"/>
+      <c r="D410" s="2" t="n"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="2" t="n"/>
+      <c r="C411" s="2" t="n"/>
+      <c r="D411" s="2" t="n"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="2" t="n"/>
+      <c r="C412" s="2" t="n"/>
+      <c r="D412" s="2" t="n"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="2" t="n"/>
+      <c r="C413" s="2" t="n"/>
+      <c r="D413" s="2" t="n"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="2" t="n"/>
+      <c r="C414" s="2" t="n"/>
+      <c r="D414" s="2" t="n"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="2" t="n"/>
+      <c r="C415" s="2" t="n"/>
+      <c r="D415" s="2" t="n"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="2" t="n"/>
+      <c r="C416" s="2" t="n"/>
+      <c r="D416" s="2" t="n"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="2" t="n"/>
+      <c r="C417" s="2" t="n"/>
+      <c r="D417" s="2" t="n"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="2" t="n"/>
+      <c r="C418" s="2" t="n"/>
+      <c r="D418" s="2" t="n"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="2" t="n"/>
+      <c r="C419" s="2" t="n"/>
+      <c r="D419" s="2" t="n"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="2" t="n"/>
+      <c r="C420" s="2" t="n"/>
+      <c r="D420" s="2" t="n"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="2" t="n"/>
+      <c r="C421" s="2" t="n"/>
+      <c r="D421" s="2" t="n"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="2" t="n"/>
+      <c r="C422" s="2" t="n"/>
+      <c r="D422" s="2" t="n"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="2" t="n"/>
+      <c r="C423" s="2" t="n"/>
+      <c r="D423" s="2" t="n"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="2" t="n"/>
+      <c r="C424" s="2" t="n"/>
+      <c r="D424" s="2" t="n"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="2" t="n"/>
+      <c r="C425" s="2" t="n"/>
+      <c r="D425" s="2" t="n"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="2" t="n"/>
+      <c r="C426" s="2" t="n"/>
+      <c r="D426" s="2" t="n"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="2" t="n"/>
+      <c r="C427" s="2" t="n"/>
+      <c r="D427" s="2" t="n"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="2" t="n"/>
+      <c r="C428" s="2" t="n"/>
+      <c r="D428" s="2" t="n"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="2" t="n"/>
+      <c r="C429" s="2" t="n"/>
+      <c r="D429" s="2" t="n"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="2" t="n"/>
+      <c r="C430" s="2" t="n"/>
+      <c r="D430" s="2" t="n"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="2" t="n"/>
+      <c r="C431" s="2" t="n"/>
+      <c r="D431" s="2" t="n"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="2" t="n"/>
+      <c r="C432" s="2" t="n"/>
+      <c r="D432" s="2" t="n"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="2" t="n"/>
+      <c r="C433" s="2" t="n"/>
+      <c r="D433" s="2" t="n"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="2" t="n"/>
+      <c r="C434" s="2" t="n"/>
+      <c r="D434" s="2" t="n"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="2" t="n"/>
+      <c r="C435" s="2" t="n"/>
+      <c r="D435" s="2" t="n"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="2" t="n"/>
+      <c r="C436" s="2" t="n"/>
+      <c r="D436" s="2" t="n"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="2" t="n"/>
+      <c r="C437" s="2" t="n"/>
+      <c r="D437" s="2" t="n"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="2" t="n"/>
+      <c r="C438" s="2" t="n"/>
+      <c r="D438" s="2" t="n"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="2" t="n"/>
+      <c r="C439" s="2" t="n"/>
+      <c r="D439" s="2" t="n"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="2" t="n"/>
+      <c r="C440" s="2" t="n"/>
+      <c r="D440" s="2" t="n"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="2" t="n"/>
+      <c r="C441" s="2" t="n"/>
+      <c r="D441" s="2" t="n"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="2" t="n"/>
+      <c r="C442" s="2" t="n"/>
+      <c r="D442" s="2" t="n"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="2" t="n"/>
+      <c r="C443" s="2" t="n"/>
+      <c r="D443" s="2" t="n"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="2" t="n"/>
+      <c r="C444" s="2" t="n"/>
+      <c r="D444" s="2" t="n"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="2" t="n"/>
+      <c r="C445" s="2" t="n"/>
+      <c r="D445" s="2" t="n"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="2" t="n"/>
+      <c r="C446" s="2" t="n"/>
+      <c r="D446" s="2" t="n"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="2" t="n"/>
+      <c r="C447" s="2" t="n"/>
+      <c r="D447" s="2" t="n"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="2" t="n"/>
+      <c r="C448" s="2" t="n"/>
+      <c r="D448" s="2" t="n"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="2" t="n"/>
+      <c r="C449" s="2" t="n"/>
+      <c r="D449" s="2" t="n"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="2" t="n"/>
+      <c r="C450" s="2" t="n"/>
+      <c r="D450" s="2" t="n"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="2" t="n"/>
+      <c r="C451" s="2" t="n"/>
+      <c r="D451" s="2" t="n"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="2" t="n"/>
+      <c r="C452" s="2" t="n"/>
+      <c r="D452" s="2" t="n"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="2" t="n"/>
+      <c r="C453" s="2" t="n"/>
+      <c r="D453" s="2" t="n"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="2" t="n"/>
+      <c r="C454" s="2" t="n"/>
+      <c r="D454" s="2" t="n"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="2" t="n"/>
+      <c r="C455" s="2" t="n"/>
+      <c r="D455" s="2" t="n"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="2" t="n"/>
+      <c r="C456" s="2" t="n"/>
+      <c r="D456" s="2" t="n"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="2" t="n"/>
+      <c r="C457" s="2" t="n"/>
+      <c r="D457" s="2" t="n"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="2" t="n"/>
+      <c r="C458" s="2" t="n"/>
+      <c r="D458" s="2" t="n"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="2" t="n"/>
+      <c r="C459" s="2" t="n"/>
+      <c r="D459" s="2" t="n"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="2" t="n"/>
+      <c r="C460" s="2" t="n"/>
+      <c r="D460" s="2" t="n"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="2" t="n"/>
+      <c r="C461" s="2" t="n"/>
+      <c r="D461" s="2" t="n"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="2" t="n"/>
+      <c r="C462" s="2" t="n"/>
+      <c r="D462" s="2" t="n"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="2" t="n"/>
+      <c r="C463" s="2" t="n"/>
+      <c r="D463" s="2" t="n"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="2" t="n"/>
+      <c r="C464" s="2" t="n"/>
+      <c r="D464" s="2" t="n"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="2" t="n"/>
+      <c r="C465" s="2" t="n"/>
+      <c r="D465" s="2" t="n"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="2" t="n"/>
+      <c r="C466" s="2" t="n"/>
+      <c r="D466" s="2" t="n"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="2" t="n"/>
+      <c r="C467" s="2" t="n"/>
+      <c r="D467" s="2" t="n"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="2" t="n"/>
+      <c r="C468" s="2" t="n"/>
+      <c r="D468" s="2" t="n"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="2" t="n"/>
+      <c r="C469" s="2" t="n"/>
+      <c r="D469" s="2" t="n"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="2" t="n"/>
+      <c r="C470" s="2" t="n"/>
+      <c r="D470" s="2" t="n"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="2" t="n"/>
+      <c r="C471" s="2" t="n"/>
+      <c r="D471" s="2" t="n"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="2" t="n"/>
+      <c r="C472" s="2" t="n"/>
+      <c r="D472" s="2" t="n"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="2" t="n"/>
+      <c r="C473" s="2" t="n"/>
+      <c r="D473" s="2" t="n"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="2" t="n"/>
+      <c r="C474" s="2" t="n"/>
+      <c r="D474" s="2" t="n"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="2" t="n"/>
+      <c r="C475" s="2" t="n"/>
+      <c r="D475" s="2" t="n"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="2" t="n"/>
+      <c r="C476" s="2" t="n"/>
+      <c r="D476" s="2" t="n"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="2" t="n"/>
+      <c r="C477" s="2" t="n"/>
+      <c r="D477" s="2" t="n"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="2" t="n"/>
+      <c r="C478" s="2" t="n"/>
+      <c r="D478" s="2" t="n"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="2" t="n"/>
+      <c r="C479" s="2" t="n"/>
+      <c r="D479" s="2" t="n"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="2" t="n"/>
+      <c r="C480" s="2" t="n"/>
+      <c r="D480" s="2" t="n"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="2" t="n"/>
+      <c r="C481" s="2" t="n"/>
+      <c r="D481" s="2" t="n"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="2" t="n"/>
+      <c r="C482" s="2" t="n"/>
+      <c r="D482" s="2" t="n"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="2" t="n"/>
+      <c r="C483" s="2" t="n"/>
+      <c r="D483" s="2" t="n"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="2" t="n"/>
+      <c r="C484" s="2" t="n"/>
+      <c r="D484" s="2" t="n"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="2" t="n"/>
+      <c r="C485" s="2" t="n"/>
+      <c r="D485" s="2" t="n"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="2" t="n"/>
+      <c r="C486" s="2" t="n"/>
+      <c r="D486" s="2" t="n"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="2" t="n"/>
+      <c r="C487" s="2" t="n"/>
+      <c r="D487" s="2" t="n"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="2" t="n"/>
+      <c r="C488" s="2" t="n"/>
+      <c r="D488" s="2" t="n"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="2" t="n"/>
+      <c r="C489" s="2" t="n"/>
+      <c r="D489" s="2" t="n"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="2" t="n"/>
+      <c r="C490" s="2" t="n"/>
+      <c r="D490" s="2" t="n"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="2" t="n"/>
+      <c r="C491" s="2" t="n"/>
+      <c r="D491" s="2" t="n"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="2" t="n"/>
+      <c r="C492" s="2" t="n"/>
+      <c r="D492" s="2" t="n"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="2" t="n"/>
+      <c r="C493" s="2" t="n"/>
+      <c r="D493" s="2" t="n"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="2" t="n"/>
+      <c r="C494" s="2" t="n"/>
+      <c r="D494" s="2" t="n"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="2" t="n"/>
+      <c r="C495" s="2" t="n"/>
+      <c r="D495" s="2" t="n"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="2" t="n"/>
+      <c r="C496" s="2" t="n"/>
+      <c r="D496" s="2" t="n"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="2" t="n"/>
+      <c r="C497" s="2" t="n"/>
+      <c r="D497" s="2" t="n"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="2" t="n"/>
+      <c r="C498" s="2" t="n"/>
+      <c r="D498" s="2" t="n"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="2" t="n"/>
+      <c r="C499" s="2" t="n"/>
+      <c r="D499" s="2" t="n"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="2" t="n"/>
+      <c r="C500" s="2" t="n"/>
+      <c r="D500" s="2" t="n"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="2" t="n"/>
+      <c r="C501" s="2" t="n"/>
+      <c r="D501" s="2" t="n"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="2" t="n"/>
+      <c r="C502" s="2" t="n"/>
+      <c r="D502" s="2" t="n"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="2" t="n"/>
+      <c r="C503" s="2" t="n"/>
+      <c r="D503" s="2" t="n"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="2" t="n"/>
+      <c r="C504" s="2" t="n"/>
+      <c r="D504" s="2" t="n"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="2" t="n"/>
+      <c r="C505" s="2" t="n"/>
+      <c r="D505" s="2" t="n"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="2" t="n"/>
+      <c r="C506" s="2" t="n"/>
+      <c r="D506" s="2" t="n"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="2" t="n"/>
+      <c r="C507" s="2" t="n"/>
+      <c r="D507" s="2" t="n"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="2" t="n"/>
+      <c r="C508" s="2" t="n"/>
+      <c r="D508" s="2" t="n"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="2" t="n"/>
+      <c r="C509" s="2" t="n"/>
+      <c r="D509" s="2" t="n"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="2" t="n"/>
+      <c r="C510" s="2" t="n"/>
+      <c r="D510" s="2" t="n"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="2" t="n"/>
+      <c r="C511" s="2" t="n"/>
+      <c r="D511" s="2" t="n"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="2" t="n"/>
+      <c r="C512" s="2" t="n"/>
+      <c r="D512" s="2" t="n"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="2" t="n"/>
+      <c r="C513" s="2" t="n"/>
+      <c r="D513" s="2" t="n"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="2" t="n"/>
+      <c r="C514" s="2" t="n"/>
+      <c r="D514" s="2" t="n"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="2" t="n"/>
+      <c r="C515" s="2" t="n"/>
+      <c r="D515" s="2" t="n"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="2" t="n"/>
+      <c r="C516" s="2" t="n"/>
+      <c r="D516" s="2" t="n"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="2" t="n"/>
+      <c r="C517" s="2" t="n"/>
+      <c r="D517" s="2" t="n"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="2" t="n"/>
+      <c r="C518" s="2" t="n"/>
+      <c r="D518" s="2" t="n"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="2" t="n"/>
+      <c r="C519" s="2" t="n"/>
+      <c r="D519" s="2" t="n"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="2" t="n"/>
+      <c r="C520" s="2" t="n"/>
+      <c r="D520" s="2" t="n"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="2" t="n"/>
+      <c r="C521" s="2" t="n"/>
+      <c r="D521" s="2" t="n"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="2" t="n"/>
+      <c r="C522" s="2" t="n"/>
+      <c r="D522" s="2" t="n"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="2" t="n"/>
+      <c r="C523" s="2" t="n"/>
+      <c r="D523" s="2" t="n"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="2" t="n"/>
+      <c r="C524" s="2" t="n"/>
+      <c r="D524" s="2" t="n"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="2" t="n"/>
+      <c r="C525" s="2" t="n"/>
+      <c r="D525" s="2" t="n"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="2" t="n"/>
+      <c r="C526" s="2" t="n"/>
+      <c r="D526" s="2" t="n"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="2" t="n"/>
+      <c r="C527" s="2" t="n"/>
+      <c r="D527" s="2" t="n"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="2" t="n"/>
+      <c r="C528" s="2" t="n"/>
+      <c r="D528" s="2" t="n"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="2" t="n"/>
+      <c r="C529" s="2" t="n"/>
+      <c r="D529" s="2" t="n"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="2" t="n"/>
+      <c r="C530" s="2" t="n"/>
+      <c r="D530" s="2" t="n"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="2" t="n"/>
+      <c r="C531" s="2" t="n"/>
+      <c r="D531" s="2" t="n"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="2" t="n"/>
+      <c r="C532" s="2" t="n"/>
+      <c r="D532" s="2" t="n"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="2" t="n"/>
+      <c r="C533" s="2" t="n"/>
+      <c r="D533" s="2" t="n"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="2" t="n"/>
+      <c r="C534" s="2" t="n"/>
+      <c r="D534" s="2" t="n"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="2" t="n"/>
+      <c r="C535" s="2" t="n"/>
+      <c r="D535" s="2" t="n"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="2" t="n"/>
+      <c r="C536" s="2" t="n"/>
+      <c r="D536" s="2" t="n"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="2" t="n"/>
+      <c r="C537" s="2" t="n"/>
+      <c r="D537" s="2" t="n"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="2" t="n"/>
+      <c r="C538" s="2" t="n"/>
+      <c r="D538" s="2" t="n"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="2" t="n"/>
+      <c r="C539" s="2" t="n"/>
+      <c r="D539" s="2" t="n"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="2" t="n"/>
+      <c r="C540" s="2" t="n"/>
+      <c r="D540" s="2" t="n"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="2" t="n"/>
+      <c r="C541" s="2" t="n"/>
+      <c r="D541" s="2" t="n"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="2" t="n"/>
+      <c r="C542" s="2" t="n"/>
+      <c r="D542" s="2" t="n"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="2" t="n"/>
+      <c r="C543" s="2" t="n"/>
+      <c r="D543" s="2" t="n"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="2" t="n"/>
+      <c r="C544" s="2" t="n"/>
+      <c r="D544" s="2" t="n"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="2" t="n"/>
+      <c r="C545" s="2" t="n"/>
+      <c r="D545" s="2" t="n"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="2" t="n"/>
+      <c r="C546" s="2" t="n"/>
+      <c r="D546" s="2" t="n"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="2" t="n"/>
+      <c r="C547" s="2" t="n"/>
+      <c r="D547" s="2" t="n"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="2" t="n"/>
+      <c r="C548" s="2" t="n"/>
+      <c r="D548" s="2" t="n"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="2" t="n"/>
+      <c r="C549" s="2" t="n"/>
+      <c r="D549" s="2" t="n"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="2" t="n"/>
+      <c r="C550" s="2" t="n"/>
+      <c r="D550" s="2" t="n"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="2" t="n"/>
+      <c r="C551" s="2" t="n"/>
+      <c r="D551" s="2" t="n"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="2" t="n"/>
+      <c r="C552" s="2" t="n"/>
+      <c r="D552" s="2" t="n"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="2" t="n"/>
+      <c r="C553" s="2" t="n"/>
+      <c r="D553" s="2" t="n"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="2" t="n"/>
+      <c r="C554" s="2" t="n"/>
+      <c r="D554" s="2" t="n"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="2" t="n"/>
+      <c r="C555" s="2" t="n"/>
+      <c r="D555" s="2" t="n"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="2" t="n"/>
+      <c r="C556" s="2" t="n"/>
+      <c r="D556" s="2" t="n"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="2" t="n"/>
+      <c r="C557" s="2" t="n"/>
+      <c r="D557" s="2" t="n"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="2" t="n"/>
+      <c r="C558" s="2" t="n"/>
+      <c r="D558" s="2" t="n"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="2" t="n"/>
+      <c r="C559" s="2" t="n"/>
+      <c r="D559" s="2" t="n"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="2" t="n"/>
+      <c r="C560" s="2" t="n"/>
+      <c r="D560" s="2" t="n"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="2" t="n"/>
+      <c r="C561" s="2" t="n"/>
+      <c r="D561" s="2" t="n"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="2" t="n"/>
+      <c r="C562" s="2" t="n"/>
+      <c r="D562" s="2" t="n"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="2" t="n"/>
+      <c r="C563" s="2" t="n"/>
+      <c r="D563" s="2" t="n"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="2" t="n"/>
+      <c r="C564" s="2" t="n"/>
+      <c r="D564" s="2" t="n"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="2" t="n"/>
+      <c r="C565" s="2" t="n"/>
+      <c r="D565" s="2" t="n"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="2" t="n"/>
+      <c r="C566" s="2" t="n"/>
+      <c r="D566" s="2" t="n"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="2" t="n"/>
+      <c r="C567" s="2" t="n"/>
+      <c r="D567" s="2" t="n"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="2" t="n"/>
+      <c r="C568" s="2" t="n"/>
+      <c r="D568" s="2" t="n"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="2" t="n"/>
+      <c r="C569" s="2" t="n"/>
+      <c r="D569" s="2" t="n"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="2" t="n"/>
+      <c r="C570" s="2" t="n"/>
+      <c r="D570" s="2" t="n"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="2" t="n"/>
+      <c r="C571" s="2" t="n"/>
+      <c r="D571" s="2" t="n"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="2" t="n"/>
+      <c r="C572" s="2" t="n"/>
+      <c r="D572" s="2" t="n"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="2" t="n"/>
+      <c r="C573" s="2" t="n"/>
+      <c r="D573" s="2" t="n"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="2" t="n"/>
+      <c r="C574" s="2" t="n"/>
+      <c r="D574" s="2" t="n"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="2" t="n"/>
+      <c r="C575" s="2" t="n"/>
+      <c r="D575" s="2" t="n"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="2" t="n"/>
+      <c r="C576" s="2" t="n"/>
+      <c r="D576" s="2" t="n"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="2" t="n"/>
+      <c r="C577" s="2" t="n"/>
+      <c r="D577" s="2" t="n"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="2" t="n"/>
+      <c r="C578" s="2" t="n"/>
+      <c r="D578" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource_api/shared/dosyalar/mk_sevk_sip_listesi.xlsx
+++ b/resource_api/shared/dosyalar/mk_sevk_sip_listesi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2196" yWindow="888" windowWidth="13320" windowHeight="11472" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="17.109375" defaultRowHeight="14.4"/>
@@ -430,12 +430,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Yüklenen Fob</t>
+          <t>Yüklenen Ddp</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yüklenen Ddp</t>
+          <t>Toplam</t>
         </is>
       </c>
     </row>
@@ -449,10 +449,10 @@
         <v>19156.8</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>36277.65</v>
+        <v>38047.65</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>38047.65</v>
+        <v>57204.45</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>6227.5</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6227.5</v>
+        <v>12455</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>11374.95</v>
       </c>
     </row>
     <row r="5">
@@ -500,7 +500,7 @@
         <v>1762</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1762</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +516,7 @@
         <v>500</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         <v>115712.35</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>118689.21</v>
+        <v>126382.21</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>126382.21</v>
+        <v>242094.56</v>
       </c>
     </row>
     <row r="8">
@@ -548,7 +548,7 @@
         <v>31647.75</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>31647.75</v>
+        <v>49424.81</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>17245.31</v>
       </c>
     </row>
     <row r="10">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>96969.61</v>
       </c>
     </row>
     <row r="11">
@@ -593,10 +593,10 @@
         <v>50510.63</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>16260.99</v>
+        <v>18560.99</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>18560.99</v>
+        <v>69071.62</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>24262.36</v>
       </c>
     </row>
     <row r="13">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>17542.99</v>
+        <v>19917.99</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>19917.99</v>
@@ -644,7 +644,7 @@
         <v>962.9400000000001</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>962.9400000000001</v>
+        <v>1925.88</v>
       </c>
     </row>
     <row r="15">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>76505.44</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>11563.06</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>11563.06</v>
+        <v>36117.72</v>
       </c>
     </row>
     <row r="17">
@@ -689,10 +689,10 @@
         <v>32509.11</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>62632.47</v>
+        <v>85132.47</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>85132.47</v>
+        <v>117641.58</v>
       </c>
     </row>
     <row r="18">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>32480</v>
+        <v>35680</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>35680</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>40853.55</v>
+        <v>55353.55</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>55353.55</v>
@@ -737,10 +737,10 @@
         <v>30160.6</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>30160.6</v>
+        <v>33660.6</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>33660.6</v>
+        <v>63821.2</v>
       </c>
     </row>
     <row r="21">
@@ -753,10 +753,10 @@
         <v>10161.7</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>10161.7</v>
+        <v>10361.7</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>10361.7</v>
+        <v>20523.4</v>
       </c>
     </row>
     <row r="22">
@@ -772,7 +772,7 @@
         <v>7221.68</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>7221.68</v>
+        <v>14443.36</v>
       </c>
     </row>
     <row r="23">
@@ -785,10 +785,10 @@
         <v>9926.370000000001</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>9926.370000000001</v>
+        <v>9391.370000000001</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>9391.370000000001</v>
+        <v>19317.74</v>
       </c>
     </row>
     <row r="24">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>22746.86</v>
+        <v>26346.86</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>26346.86</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>12751.32</v>
       </c>
     </row>
     <row r="26">
@@ -833,10 +833,10 @@
         <v>5270.49</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>21553.38</v>
+        <v>24700.89</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>24700.89</v>
+        <v>29971.38</v>
       </c>
     </row>
     <row r="27">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>57830.24</v>
+        <v>59198.24</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>59198.24</v>
@@ -868,7 +868,7 @@
         <v>28802.48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>28802.48</v>
+        <v>48897.23</v>
       </c>
     </row>
     <row r="29">
@@ -881,10 +881,10 @@
         <v>567.16</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>567.16</v>
+        <v>1503.98</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1503.98</v>
+        <v>2071.14</v>
       </c>
     </row>
     <row r="30">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>6269.1</v>
+        <v>8889.1</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>8889.1</v>
@@ -913,10 +913,10 @@
         <v>38990.06</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45677.18</v>
+        <v>52477.18</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>52477.18</v>
+        <v>91467.23999999999</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         <v>30081.67</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>30081.67</v>
+        <v>33731.67</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>33731.67</v>
+        <v>63813.34</v>
       </c>
     </row>
     <row r="34">
@@ -964,7 +964,7 @@
         <v>12350.24</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>12350.24</v>
+        <v>25170.48</v>
       </c>
     </row>
     <row r="35">
@@ -977,10 +977,10 @@
         <v>42361.8</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>36719.94</v>
+        <v>38391.05</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>38391.05</v>
+        <v>80752.85000000001</v>
       </c>
     </row>
     <row r="36">
@@ -996,7 +996,7 @@
         <v>31252.8</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>31252.8</v>
+        <v>62505.6</v>
       </c>
     </row>
     <row r="37">
@@ -1012,7 +1012,7 @@
         <v>32020.64</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>32020.64</v>
+        <v>64041.28</v>
       </c>
     </row>
     <row r="38">
@@ -1025,10 +1025,10 @@
         <v>77464.69</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>19421.71</v>
+        <v>25143.71</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>25143.71</v>
+        <v>102608.4</v>
       </c>
     </row>
     <row r="39">
@@ -1041,10 +1041,10 @@
         <v>14270.65</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>14270.65</v>
+        <v>15651.92</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>15651.92</v>
+        <v>29922.57</v>
       </c>
     </row>
     <row r="40">
@@ -1057,10 +1057,10 @@
         <v>94130.77</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>60006.15</v>
+        <v>62211.05</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>62211.05</v>
+        <v>156341.82</v>
       </c>
     </row>
     <row r="41">
@@ -1073,10 +1073,10 @@
         <v>79755.8</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>27686.1</v>
+        <v>31336.1</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>31336.1</v>
+        <v>111091.9</v>
       </c>
     </row>
     <row r="42">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>14001.12</v>
       </c>
     </row>
     <row r="43">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0</v>
+        <v>33439.57</v>
       </c>
     </row>
     <row r="44">
@@ -1124,7 +1124,7 @@
         <v>650</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="46">
